--- a/PFOA inhalation Rat/Validation/Raw_data/Kemper_2003/Kemper_Serum.xlsx
+++ b/PFOA inhalation Rat/Validation/Raw_data/Kemper_2003/Kemper_Serum.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="13">
   <si>
     <t>Dose_mg_per_kg</t>
   </si>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1160,13 +1160,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="1">
-        <v>72</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="D33" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>11</v>
@@ -1180,10 +1180,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="C34" s="1">
-        <v>79.099999999999994</v>
+        <v>124</v>
       </c>
       <c r="D34" s="1">
         <v>25</v>
@@ -1200,10 +1200,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="1">
-        <v>0.38700000000000001</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1">
         <v>25</v>
@@ -1220,10 +1220,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="1">
-        <v>0.64400000000000002</v>
+        <v>1.84</v>
       </c>
       <c r="C36" s="1">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D36" s="1">
         <v>25</v>
@@ -1240,10 +1240,10 @@
         <v>6</v>
       </c>
       <c r="B37" s="1">
-        <v>1.84</v>
+        <v>3.77</v>
       </c>
       <c r="C37" s="1">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1">
         <v>25</v>
@@ -1260,10 +1260,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="1">
-        <v>3.77</v>
+        <v>7.9</v>
       </c>
       <c r="C38" s="1">
-        <v>100</v>
+        <v>31.3</v>
       </c>
       <c r="D38" s="1">
         <v>25</v>
@@ -1280,10 +1280,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="1">
-        <v>7.9</v>
+        <v>11.9</v>
       </c>
       <c r="C39" s="1">
-        <v>31.3</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="D39" s="1">
         <v>25</v>
@@ -1300,10 +1300,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="1">
-        <v>11.9</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C40" s="1">
-        <v>8.4600000000000009</v>
+        <v>250</v>
       </c>
       <c r="D40" s="1">
         <v>25</v>
@@ -1320,10 +1320,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="1">
-        <v>16.100000000000001</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1">
-        <v>250</v>
+        <v>0.192</v>
       </c>
       <c r="D41" s="1">
         <v>25</v>
@@ -1340,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1">
         <v>0.192</v>
@@ -1360,19 +1360,19 @@
         <v>6</v>
       </c>
       <c r="B43" s="1">
-        <v>36</v>
+        <v>1.21</v>
       </c>
       <c r="C43" s="1">
-        <v>0.192</v>
+        <v>7.93</v>
       </c>
       <c r="D43" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1380,19 +1380,19 @@
         <v>6</v>
       </c>
       <c r="B44" s="1">
-        <v>47.9</v>
+        <v>2.86</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>6.98</v>
       </c>
       <c r="D44" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1400,19 +1400,19 @@
         <v>6</v>
       </c>
       <c r="B45" s="1">
-        <v>71.8</v>
+        <v>3.51</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D45" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1420,19 +1420,19 @@
         <v>6</v>
       </c>
       <c r="B46" s="1">
-        <v>96</v>
+        <v>5.23</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>7.38</v>
       </c>
       <c r="D46" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1440,10 +1440,10 @@
         <v>6</v>
       </c>
       <c r="B47" s="1">
-        <v>1.21</v>
+        <v>8.99</v>
       </c>
       <c r="C47" s="1">
-        <v>7.93</v>
+        <v>7.03</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1460,10 +1460,10 @@
         <v>6</v>
       </c>
       <c r="B48" s="1">
-        <v>2.86</v>
+        <v>12.9</v>
       </c>
       <c r="C48" s="1">
-        <v>6.98</v>
+        <v>7.4</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -1480,10 +1480,10 @@
         <v>6</v>
       </c>
       <c r="B49" s="1">
-        <v>3.51</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C49" s="1">
-        <v>9.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -1500,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="1">
-        <v>5.23</v>
+        <v>24.8</v>
       </c>
       <c r="C50" s="1">
-        <v>7.38</v>
+        <v>5.82</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -1520,10 +1520,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="1">
-        <v>8.99</v>
+        <v>37.5</v>
       </c>
       <c r="C51" s="1">
-        <v>7.03</v>
+        <v>4.17</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -1540,10 +1540,10 @@
         <v>6</v>
       </c>
       <c r="B52" s="1">
-        <v>12.9</v>
+        <v>48.9</v>
       </c>
       <c r="C52" s="1">
-        <v>7.4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="B53" s="1">
-        <v>16.899999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="C53" s="1">
-        <v>8.5</v>
+        <v>3.98</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -1580,10 +1580,10 @@
         <v>6</v>
       </c>
       <c r="B54" s="1">
-        <v>24.8</v>
+        <v>96.1</v>
       </c>
       <c r="C54" s="1">
-        <v>5.82</v>
+        <v>2.96</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -1600,10 +1600,10 @@
         <v>6</v>
       </c>
       <c r="B55" s="1">
-        <v>37.5</v>
+        <v>120</v>
       </c>
       <c r="C55" s="1">
-        <v>4.17</v>
+        <v>2.7</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -1620,10 +1620,10 @@
         <v>6</v>
       </c>
       <c r="B56" s="1">
-        <v>48.9</v>
+        <v>144</v>
       </c>
       <c r="C56" s="1">
-        <v>4.0199999999999996</v>
+        <v>1.74</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -1640,10 +1640,10 @@
         <v>6</v>
       </c>
       <c r="B57" s="1">
-        <v>71.8</v>
+        <v>169</v>
       </c>
       <c r="C57" s="1">
-        <v>3.98</v>
+        <v>1.71</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -1660,10 +1660,10 @@
         <v>6</v>
       </c>
       <c r="B58" s="1">
-        <v>96.1</v>
+        <v>192</v>
       </c>
       <c r="C58" s="1">
-        <v>2.96</v>
+        <v>1.68</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -1680,10 +1680,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C59" s="1">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -1700,10 +1700,10 @@
         <v>6</v>
       </c>
       <c r="B60" s="1">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="C60" s="1">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -1720,10 +1720,10 @@
         <v>6</v>
       </c>
       <c r="B61" s="1">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="C61" s="1">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -1740,10 +1740,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="1">
-        <v>192</v>
+        <v>384</v>
       </c>
       <c r="C62" s="1">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -1760,10 +1760,10 @@
         <v>6</v>
       </c>
       <c r="B63" s="1">
-        <v>240</v>
+        <v>432</v>
       </c>
       <c r="C63" s="1">
-        <v>1.85</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -1780,10 +1780,10 @@
         <v>6</v>
       </c>
       <c r="B64" s="1">
-        <v>288</v>
+        <v>480</v>
       </c>
       <c r="C64" s="1">
-        <v>1.42</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -1800,10 +1800,10 @@
         <v>6</v>
       </c>
       <c r="B65" s="1">
-        <v>336</v>
+        <v>528</v>
       </c>
       <c r="C65" s="1">
-        <v>1.33</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -1820,16 +1820,16 @@
         <v>6</v>
       </c>
       <c r="B66" s="1">
-        <v>384</v>
+        <v>0.97</v>
       </c>
       <c r="C66" s="1">
-        <v>1.21</v>
+        <v>3.72</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
@@ -1840,16 +1840,16 @@
         <v>6</v>
       </c>
       <c r="B67" s="1">
-        <v>432</v>
+        <v>1.94</v>
       </c>
       <c r="C67" s="1">
-        <v>0.94699999999999995</v>
+        <v>4.45</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
@@ -1860,16 +1860,16 @@
         <v>6</v>
       </c>
       <c r="B68" s="1">
-        <v>480</v>
+        <v>26.2</v>
       </c>
       <c r="C68" s="1">
-        <v>0.84099999999999997</v>
+        <v>4.96</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -1880,16 +1880,16 @@
         <v>6</v>
       </c>
       <c r="B69" s="1">
-        <v>528</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C69" s="1">
-        <v>0.61199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
@@ -1900,10 +1900,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="1">
-        <v>0.97</v>
+        <v>50.4</v>
       </c>
       <c r="C70" s="1">
-        <v>3.72</v>
+        <v>4.29</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -1920,10 +1920,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="1">
-        <v>1.94</v>
+        <v>73.7</v>
       </c>
       <c r="C71" s="1">
-        <v>4.45</v>
+        <v>3.47</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -1940,10 +1940,10 @@
         <v>6</v>
       </c>
       <c r="B72" s="1">
-        <v>26.2</v>
+        <v>97</v>
       </c>
       <c r="C72" s="1">
-        <v>4.96</v>
+        <v>3.36</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -1960,10 +1960,10 @@
         <v>6</v>
       </c>
       <c r="B73" s="1">
-        <v>38.799999999999997</v>
+        <v>121</v>
       </c>
       <c r="C73" s="1">
-        <v>4.7</v>
+        <v>3.59</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -1980,10 +1980,10 @@
         <v>6</v>
       </c>
       <c r="B74" s="1">
-        <v>50.4</v>
+        <v>145</v>
       </c>
       <c r="C74" s="1">
-        <v>4.29</v>
+        <v>2.82</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -2000,10 +2000,10 @@
         <v>6</v>
       </c>
       <c r="B75" s="1">
-        <v>73.7</v>
+        <v>169</v>
       </c>
       <c r="C75" s="1">
-        <v>3.47</v>
+        <v>2.79</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -2020,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="B76" s="1">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="C76" s="1">
-        <v>3.36</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -2040,10 +2040,10 @@
         <v>6</v>
       </c>
       <c r="B77" s="1">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="C77" s="1">
-        <v>3.59</v>
+        <v>1.49</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -2060,10 +2060,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="1">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="C78" s="1">
-        <v>2.82</v>
+        <v>1.21</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -2080,10 +2080,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="1">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="C79" s="1">
-        <v>2.79</v>
+        <v>1.2</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -2100,10 +2100,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="1">
-        <v>193</v>
+        <v>385</v>
       </c>
       <c r="C80" s="1">
-        <v>3</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -2120,10 +2120,10 @@
         <v>6</v>
       </c>
       <c r="B81" s="1">
-        <v>240</v>
+        <v>433</v>
       </c>
       <c r="C81" s="1">
-        <v>1.49</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -2140,10 +2140,10 @@
         <v>6</v>
       </c>
       <c r="B82" s="1">
-        <v>288</v>
+        <v>481</v>
       </c>
       <c r="C82" s="1">
-        <v>1.21</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -2160,10 +2160,10 @@
         <v>6</v>
       </c>
       <c r="B83" s="1">
-        <v>336</v>
+        <v>529</v>
       </c>
       <c r="C83" s="1">
-        <v>1.2</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -2180,13 +2180,13 @@
         <v>6</v>
       </c>
       <c r="B84" s="1">
-        <v>385</v>
+        <v>0.9</v>
       </c>
       <c r="C84" s="1">
-        <v>1.0900000000000001</v>
+        <v>6.68</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>11</v>
@@ -2200,13 +2200,13 @@
         <v>6</v>
       </c>
       <c r="B85" s="1">
-        <v>433</v>
+        <v>1.4</v>
       </c>
       <c r="C85" s="1">
-        <v>0.77800000000000002</v>
+        <v>11.1</v>
       </c>
       <c r="D85" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>11</v>
@@ -2220,13 +2220,13 @@
         <v>6</v>
       </c>
       <c r="B86" s="1">
-        <v>481</v>
+        <v>2.1</v>
       </c>
       <c r="C86" s="1">
-        <v>0.77800000000000002</v>
+        <v>29</v>
       </c>
       <c r="D86" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>11</v>
@@ -2240,13 +2240,13 @@
         <v>6</v>
       </c>
       <c r="B87" s="1">
-        <v>529</v>
+        <v>2.63</v>
       </c>
       <c r="C87" s="1">
-        <v>0.44700000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="D87" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>11</v>
@@ -2260,10 +2260,10 @@
         <v>6</v>
       </c>
       <c r="B88" s="1">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="C88" s="1">
-        <v>6.68</v>
+        <v>34</v>
       </c>
       <c r="D88" s="1">
         <v>5</v>
@@ -2280,10 +2280,10 @@
         <v>6</v>
       </c>
       <c r="B89" s="1">
-        <v>1.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C89" s="1">
-        <v>11.1</v>
+        <v>37.4</v>
       </c>
       <c r="D89" s="1">
         <v>5</v>
@@ -2300,10 +2300,10 @@
         <v>6</v>
       </c>
       <c r="B90" s="1">
-        <v>2.1</v>
+        <v>13.8</v>
       </c>
       <c r="C90" s="1">
-        <v>29</v>
+        <v>30.7</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
@@ -2320,10 +2320,10 @@
         <v>6</v>
       </c>
       <c r="B91" s="1">
-        <v>2.63</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C91" s="1">
-        <v>17.8</v>
+        <v>35.4</v>
       </c>
       <c r="D91" s="1">
         <v>5</v>
@@ -2340,10 +2340,10 @@
         <v>6</v>
       </c>
       <c r="B92" s="1">
-        <v>5.2</v>
+        <v>48.4</v>
       </c>
       <c r="C92" s="1">
-        <v>34</v>
+        <v>23.3</v>
       </c>
       <c r="D92" s="1">
         <v>5</v>
@@ -2360,10 +2360,10 @@
         <v>6</v>
       </c>
       <c r="B93" s="1">
-        <v>10.199999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="C93" s="1">
-        <v>37.4</v>
+        <v>25.3</v>
       </c>
       <c r="D93" s="1">
         <v>5</v>
@@ -2380,10 +2380,10 @@
         <v>6</v>
       </c>
       <c r="B94" s="1">
-        <v>13.8</v>
+        <v>96.6</v>
       </c>
       <c r="C94" s="1">
-        <v>30.7</v>
+        <v>16.5</v>
       </c>
       <c r="D94" s="1">
         <v>5</v>
@@ -2400,10 +2400,10 @@
         <v>6</v>
       </c>
       <c r="B95" s="1">
-        <v>17.899999999999999</v>
+        <v>121</v>
       </c>
       <c r="C95" s="1">
-        <v>35.4</v>
+        <v>14.7</v>
       </c>
       <c r="D95" s="1">
         <v>5</v>
@@ -2420,10 +2420,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="1">
-        <v>48.4</v>
+        <v>145</v>
       </c>
       <c r="C96" s="1">
-        <v>23.3</v>
+        <v>11.6</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
@@ -2440,10 +2440,10 @@
         <v>6</v>
       </c>
       <c r="B97" s="1">
-        <v>72.7</v>
+        <v>169</v>
       </c>
       <c r="C97" s="1">
-        <v>25.3</v>
+        <v>11.4</v>
       </c>
       <c r="D97" s="1">
         <v>5</v>
@@ -2460,10 +2460,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="1">
-        <v>96.6</v>
+        <v>193</v>
       </c>
       <c r="C98" s="1">
-        <v>16.5</v>
+        <v>9.14</v>
       </c>
       <c r="D98" s="1">
         <v>5</v>
@@ -2480,10 +2480,10 @@
         <v>6</v>
       </c>
       <c r="B99" s="1">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="C99" s="1">
-        <v>14.7</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="D99" s="1">
         <v>5</v>
@@ -2500,10 +2500,10 @@
         <v>6</v>
       </c>
       <c r="B100" s="1">
-        <v>145</v>
+        <v>289</v>
       </c>
       <c r="C100" s="1">
-        <v>11.6</v>
+        <v>8.18</v>
       </c>
       <c r="D100" s="1">
         <v>5</v>
@@ -2520,10 +2520,10 @@
         <v>6</v>
       </c>
       <c r="B101" s="1">
-        <v>169</v>
+        <v>337</v>
       </c>
       <c r="C101" s="1">
-        <v>11.4</v>
+        <v>6.13</v>
       </c>
       <c r="D101" s="1">
         <v>5</v>
@@ -2540,10 +2540,10 @@
         <v>6</v>
       </c>
       <c r="B102" s="1">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="C102" s="1">
-        <v>9.14</v>
+        <v>5.77</v>
       </c>
       <c r="D102" s="1">
         <v>5</v>
@@ -2560,10 +2560,10 @@
         <v>6</v>
       </c>
       <c r="B103" s="1">
-        <v>241</v>
+        <v>432</v>
       </c>
       <c r="C103" s="1">
-        <v>8.1199999999999992</v>
+        <v>4.32</v>
       </c>
       <c r="D103" s="1">
         <v>5</v>
@@ -2580,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="B104" s="1">
-        <v>289</v>
+        <v>480</v>
       </c>
       <c r="C104" s="1">
-        <v>8.18</v>
+        <v>4.33</v>
       </c>
       <c r="D104" s="1">
         <v>5</v>
@@ -2600,10 +2600,10 @@
         <v>6</v>
       </c>
       <c r="B105" s="1">
-        <v>337</v>
+        <v>527</v>
       </c>
       <c r="C105" s="1">
-        <v>6.13</v>
+        <v>2.94</v>
       </c>
       <c r="D105" s="1">
         <v>5</v>
@@ -2620,13 +2620,13 @@
         <v>6</v>
       </c>
       <c r="B106" s="1">
-        <v>384</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="C106" s="1">
-        <v>5.77</v>
+        <v>56.4</v>
       </c>
       <c r="D106" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>11</v>
@@ -2640,13 +2640,13 @@
         <v>6</v>
       </c>
       <c r="B107" s="1">
-        <v>432</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="C107" s="1">
-        <v>4.32</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="D107" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>11</v>
@@ -2660,13 +2660,13 @@
         <v>6</v>
       </c>
       <c r="B108" s="1">
-        <v>480</v>
+        <v>1.38</v>
       </c>
       <c r="C108" s="1">
-        <v>4.33</v>
+        <v>100</v>
       </c>
       <c r="D108" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>11</v>
@@ -2680,13 +2680,13 @@
         <v>6</v>
       </c>
       <c r="B109" s="1">
-        <v>527</v>
+        <v>1.8</v>
       </c>
       <c r="C109" s="1">
-        <v>2.94</v>
+        <v>136</v>
       </c>
       <c r="D109" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>11</v>
@@ -2700,10 +2700,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="1">
-        <v>0.34200000000000003</v>
+        <v>4.8</v>
       </c>
       <c r="C110" s="1">
-        <v>56.4</v>
+        <v>151</v>
       </c>
       <c r="D110" s="1">
         <v>25</v>
@@ -2720,10 +2720,10 @@
         <v>6</v>
       </c>
       <c r="B111" s="1">
-        <v>0.44400000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="C111" s="1">
-        <v>73.099999999999994</v>
+        <v>138</v>
       </c>
       <c r="D111" s="1">
         <v>25</v>
@@ -2740,10 +2740,10 @@
         <v>6</v>
       </c>
       <c r="B112" s="1">
-        <v>1.38</v>
+        <v>12.5</v>
       </c>
       <c r="C112" s="1">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="D112" s="1">
         <v>25</v>
@@ -2760,10 +2760,10 @@
         <v>6</v>
       </c>
       <c r="B113" s="1">
-        <v>1.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C113" s="1">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D113" s="1">
         <v>25</v>
@@ -2780,10 +2780,10 @@
         <v>6</v>
       </c>
       <c r="B114" s="1">
-        <v>4.8</v>
+        <v>24.1</v>
       </c>
       <c r="C114" s="1">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D114" s="1">
         <v>25</v>
@@ -2800,10 +2800,10 @@
         <v>6</v>
       </c>
       <c r="B115" s="1">
-        <v>9.58</v>
+        <v>48.2</v>
       </c>
       <c r="C115" s="1">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D115" s="1">
         <v>25</v>
@@ -2820,10 +2820,10 @@
         <v>6</v>
       </c>
       <c r="B116" s="1">
-        <v>12.5</v>
+        <v>72.3</v>
       </c>
       <c r="C116" s="1">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D116" s="1">
         <v>25</v>
@@ -2840,10 +2840,10 @@
         <v>6</v>
       </c>
       <c r="B117" s="1">
-        <v>17.399999999999999</v>
+        <v>95.6</v>
       </c>
       <c r="C117" s="1">
-        <v>143</v>
+        <v>67.7</v>
       </c>
       <c r="D117" s="1">
         <v>25</v>
@@ -2860,10 +2860,10 @@
         <v>6</v>
       </c>
       <c r="B118" s="1">
-        <v>24.1</v>
+        <v>120</v>
       </c>
       <c r="C118" s="1">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="D118" s="1">
         <v>25</v>
@@ -2880,10 +2880,10 @@
         <v>6</v>
       </c>
       <c r="B119" s="1">
-        <v>48.2</v>
+        <v>145</v>
       </c>
       <c r="C119" s="1">
-        <v>101</v>
+        <v>57.9</v>
       </c>
       <c r="D119" s="1">
         <v>25</v>
@@ -2900,10 +2900,10 @@
         <v>6</v>
       </c>
       <c r="B120" s="1">
-        <v>72.3</v>
+        <v>169</v>
       </c>
       <c r="C120" s="1">
-        <v>76</v>
+        <v>50.7</v>
       </c>
       <c r="D120" s="1">
         <v>25</v>
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="B121" s="1">
-        <v>95.6</v>
+        <v>192</v>
       </c>
       <c r="C121" s="1">
-        <v>67.7</v>
+        <v>36.5</v>
       </c>
       <c r="D121" s="1">
         <v>25</v>
@@ -2940,10 +2940,10 @@
         <v>6</v>
       </c>
       <c r="B122" s="1">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="C122" s="1">
-        <v>63</v>
+        <v>31.1</v>
       </c>
       <c r="D122" s="1">
         <v>25</v>
@@ -2960,10 +2960,10 @@
         <v>6</v>
       </c>
       <c r="B123" s="1">
-        <v>145</v>
+        <v>289</v>
       </c>
       <c r="C123" s="1">
-        <v>57.9</v>
+        <v>24.9</v>
       </c>
       <c r="D123" s="1">
         <v>25</v>
@@ -2980,10 +2980,10 @@
         <v>6</v>
       </c>
       <c r="B124" s="1">
-        <v>169</v>
+        <v>337</v>
       </c>
       <c r="C124" s="1">
-        <v>50.7</v>
+        <v>25.5</v>
       </c>
       <c r="D124" s="1">
         <v>25</v>
@@ -3000,10 +3000,10 @@
         <v>6</v>
       </c>
       <c r="B125" s="1">
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="C125" s="1">
-        <v>36.5</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D125" s="1">
         <v>25</v>
@@ -3020,10 +3020,10 @@
         <v>6</v>
       </c>
       <c r="B126" s="1">
-        <v>241</v>
+        <v>432</v>
       </c>
       <c r="C126" s="1">
-        <v>31.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D126" s="1">
         <v>25</v>
@@ -3040,10 +3040,10 @@
         <v>6</v>
       </c>
       <c r="B127" s="1">
-        <v>289</v>
+        <v>481</v>
       </c>
       <c r="C127" s="1">
-        <v>24.9</v>
+        <v>15.2</v>
       </c>
       <c r="D127" s="1">
         <v>25</v>
@@ -3060,10 +3060,10 @@
         <v>6</v>
       </c>
       <c r="B128" s="1">
-        <v>337</v>
+        <v>528</v>
       </c>
       <c r="C128" s="1">
-        <v>25.5</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="D128" s="1">
         <v>25</v>
@@ -3072,86 +3072,6 @@
         <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="1">
-        <v>385</v>
-      </c>
-      <c r="C129" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D129" s="1">
-        <v>25</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130" s="1">
-        <v>432</v>
-      </c>
-      <c r="C130" s="1">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="D130" s="1">
-        <v>25</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="1">
-        <v>481</v>
-      </c>
-      <c r="C131" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="D131" s="1">
-        <v>25</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132" s="1">
-        <v>528</v>
-      </c>
-      <c r="C132" s="1">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="D132" s="1">
-        <v>25</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" t="s">
         <v>12</v>
       </c>
     </row>
